--- a/data/bitcoin_cycle_peaks.xlsx
+++ b/data/bitcoin_cycle_peaks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bston\Dropbox\Crypto App\CryptoAnalyzer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA1DE78-8B45-4B3B-9C40-8555F13F27E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA812FC-DC98-4901-897F-F04DEC0DAD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Cycle</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>2021 (Nov)</t>
-  </si>
-  <si>
-    <t>Average</t>
   </si>
   <si>
     <t>2011-06-08</t>
@@ -502,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,13 +550,13 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>31.91</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>4.5</v>
@@ -577,13 +574,13 @@
         <v>2.1</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2">
         <v>-94</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -591,13 +588,13 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>266</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1.8</v>
@@ -621,7 +618,7 @@
         <v>-81</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -629,13 +626,13 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>1163</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>4.2</v>
@@ -659,7 +656,7 @@
         <v>-86</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -667,13 +664,13 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>19783</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>3.9</v>
@@ -697,7 +694,7 @@
         <v>-84</v>
       </c>
       <c r="L5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -705,13 +702,13 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>64895</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>2.4</v>
@@ -735,7 +732,7 @@
         <v>-54</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -743,13 +740,13 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>68789</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>1.9</v>
@@ -767,42 +764,13 @@
         <v>2.9</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7">
         <v>-77</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>3.12</v>
-      </c>
-      <c r="F8">
-        <v>4.82</v>
-      </c>
-      <c r="G8">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="H8">
-        <v>0.73</v>
-      </c>
-      <c r="I8">
-        <v>3.35</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>-79.33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
